--- a/dsTaiKhoan.xlsx
+++ b/dsTaiKhoan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\ToolRegGoethe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\AutoReg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2307BC4-CF3A-4A0F-9F97-F549FD2F58E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79BECBDD-995C-41BD-9D13-CFE385D710FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Tài khoản</t>
   </si>
@@ -48,33 +48,18 @@
     <t>y</t>
   </si>
   <si>
-    <t>hoainhimaithi1@gmail.com</t>
-  </si>
-  <si>
-    <t>Toiyeutiengduc123</t>
-  </si>
-  <si>
     <t>hoangtronghuy301156@gmail.com</t>
   </si>
   <si>
     <t>Hoangtronghuy12@</t>
   </si>
   <si>
-    <t>Nguyenthanhtung19072000@gmail.com</t>
-  </si>
-  <si>
-    <t>Nguyenthanhtung113</t>
-  </si>
-  <si>
     <t>Thời gian</t>
   </si>
   <si>
     <t>Link</t>
   </si>
   <si>
-    <t>https://www.goethe.de/ins/th/en/spr/prf/gzb1.cfm</t>
-  </si>
-  <si>
     <t>Tên</t>
   </si>
   <si>
@@ -88,6 +73,9 @@
   </si>
   <si>
     <t>Y = đăng ký, Không nhập = Không đăng ký</t>
+  </si>
+  <si>
+    <t>https://www.goethe.de/ins/vn/en/sta/han/prf/gzb2.cfm</t>
   </si>
 </sst>
 </file>
@@ -442,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,32 +448,32 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
         <v>14</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -508,57 +496,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" t="s">
-        <v>6</v>
-      </c>
-    </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" t="s">
         <v>6</v>
       </c>
     </row>

--- a/dsTaiKhoan.xlsx
+++ b/dsTaiKhoan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\AutoReg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79BECBDD-995C-41BD-9D13-CFE385D710FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F38AACA9-7D66-455A-9DA7-3B2750F545ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Tài khoản</t>
   </si>
@@ -48,12 +48,6 @@
     <t>y</t>
   </si>
   <si>
-    <t>hoangtronghuy301156@gmail.com</t>
-  </si>
-  <si>
-    <t>Hoangtronghuy12@</t>
-  </si>
-  <si>
     <t>Thời gian</t>
   </si>
   <si>
@@ -63,19 +57,49 @@
     <t>Tên</t>
   </si>
   <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>24/11/2024 8:0:0</t>
-  </si>
-  <si>
-    <t>đây là file import thông tin tài khoản. Ở đây mình sẽ import theo mẫu này.</t>
-  </si>
-  <si>
-    <t>Y = đăng ký, Không nhập = Không đăng ký</t>
-  </si>
-  <si>
-    <t>https://www.goethe.de/ins/vn/en/sta/han/prf/gzb2.cfm</t>
+    <t>https://www.goethe.de/ins/vn/en/sta/han/prf/gzb1.cfm</t>
+  </si>
+  <si>
+    <t>29/11/2024 8:0:0</t>
+  </si>
+  <si>
+    <t>B1-VN-29</t>
+  </si>
+  <si>
+    <t>maianhthanh22@gmail.com</t>
+  </si>
+  <si>
+    <t>Maianh2005</t>
+  </si>
+  <si>
+    <t>anhhhong6002@gmail.com</t>
+  </si>
+  <si>
+    <t>Ku55M57Dh3X2d#m</t>
+  </si>
+  <si>
+    <t>h.giang26102005@gmail.com</t>
+  </si>
+  <si>
+    <t>Giang26102005</t>
+  </si>
+  <si>
+    <t>quynhhoa2820@gmail.com</t>
+  </si>
+  <si>
+    <t>Quynhhoa280</t>
+  </si>
+  <si>
+    <t>Yenbui090724@gmail.com</t>
+  </si>
+  <si>
+    <t>Yenbui0907</t>
+  </si>
+  <si>
+    <t>nguyennangphong2004@gmail.com</t>
+  </si>
+  <si>
+    <t>Nangphong0205@</t>
   </si>
 </sst>
 </file>
@@ -430,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,7 +472,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>12</v>
@@ -456,24 +480,18 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -496,17 +514,75 @@
         <v>5</v>
       </c>
     </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="F6" t="s">
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" t="s">
         <v>6</v>
       </c>
     </row>
